--- a/province/provinces_separate_regions.xlsx
+++ b/province/provinces_separate_regions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prasert\Downloads\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38707F6-3C2C-48FF-B185-A014FE60B745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699CF24B-85E8-4177-A91E-BE4F635CB77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="north" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="east" sheetId="7" r:id="rId3"/>
     <sheet name="west" sheetId="6" r:id="rId4"/>
     <sheet name="central" sheetId="4" r:id="rId5"/>
-    <sheet name="northeast" sheetId="5" r:id="rId6"/>
+    <sheet name="northeastern" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -2047,13 +2047,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2079,7 +2077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2105,7 +2103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2131,7 +2129,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2157,7 +2155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2183,7 +2181,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2209,7 +2207,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2235,7 +2233,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2261,7 +2259,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2287,7 +2285,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2326,9 +2324,9 @@
       <selection activeCell="A2" sqref="A2:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2354,7 +2352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -2380,7 +2378,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -2406,7 +2404,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -2432,7 +2430,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -2458,7 +2456,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -2484,7 +2482,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -2510,7 +2508,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -2536,7 +2534,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -2562,7 +2560,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -2588,7 +2586,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -2614,7 +2612,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -2640,7 +2638,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -2666,7 +2664,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -2692,7 +2690,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -2731,9 +2729,9 @@
       <selection activeCell="A2" sqref="A2:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2759,7 +2757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>262</v>
       </c>
@@ -2785,7 +2783,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>262</v>
       </c>
@@ -2811,7 +2809,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>262</v>
       </c>
@@ -2837,7 +2835,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>262</v>
       </c>
@@ -2863,7 +2861,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>262</v>
       </c>
@@ -2889,7 +2887,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>262</v>
       </c>
@@ -2915,7 +2913,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>262</v>
       </c>
@@ -2954,9 +2952,9 @@
       <selection activeCell="A2" sqref="A2:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2982,7 +2980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>236</v>
       </c>
@@ -3008,7 +3006,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>236</v>
       </c>
@@ -3034,7 +3032,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>236</v>
       </c>
@@ -3060,7 +3058,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>236</v>
       </c>
@@ -3086,7 +3084,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>236</v>
       </c>
@@ -3125,9 +3123,9 @@
       <selection activeCell="A2" sqref="A2:H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3153,7 +3151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -3179,7 +3177,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>125</v>
       </c>
@@ -3205,7 +3203,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>125</v>
       </c>
@@ -3231,7 +3229,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>125</v>
       </c>
@@ -3257,7 +3255,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>125</v>
       </c>
@@ -3283,7 +3281,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -3309,7 +3307,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -3335,7 +3333,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>125</v>
       </c>
@@ -3361,7 +3359,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>125</v>
       </c>
@@ -3387,7 +3385,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -3413,7 +3411,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -3439,7 +3437,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>125</v>
       </c>
@@ -3465,7 +3463,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -3491,7 +3489,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>125</v>
       </c>
@@ -3517,7 +3515,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>125</v>
       </c>
@@ -3543,7 +3541,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>125</v>
       </c>
@@ -3569,7 +3567,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -3595,7 +3593,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>125</v>
       </c>
@@ -3621,7 +3619,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>125</v>
       </c>
@@ -3647,7 +3645,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>125</v>
       </c>
@@ -3673,7 +3671,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>125</v>
       </c>
@@ -3699,7 +3697,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>125</v>
       </c>
@@ -3734,13 +3732,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3766,7 +3762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>298</v>
       </c>
@@ -3792,7 +3788,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>298</v>
       </c>
@@ -3818,7 +3814,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>298</v>
       </c>
@@ -3844,7 +3840,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>298</v>
       </c>
@@ -3870,7 +3866,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>298</v>
       </c>
@@ -3896,7 +3892,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>298</v>
       </c>
@@ -3922,7 +3918,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>298</v>
       </c>
@@ -3948,7 +3944,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>298</v>
       </c>
@@ -3974,7 +3970,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>298</v>
       </c>
@@ -4000,7 +3996,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>298</v>
       </c>
@@ -4026,7 +4022,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>298</v>
       </c>
@@ -4052,7 +4048,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>298</v>
       </c>
@@ -4078,7 +4074,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>298</v>
       </c>
@@ -4104,7 +4100,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>298</v>
       </c>
@@ -4130,7 +4126,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>298</v>
       </c>
@@ -4156,7 +4152,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>298</v>
       </c>
@@ -4182,7 +4178,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>298</v>
       </c>
@@ -4208,7 +4204,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>298</v>
       </c>
@@ -4234,7 +4230,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>298</v>
       </c>
@@ -4260,7 +4256,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>298</v>
       </c>

--- a/province/provinces_separate_regions.xlsx
+++ b/province/provinces_separate_regions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prasert\Downloads\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prasert\Downloads\province\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699CF24B-85E8-4177-A91E-BE4F635CB77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3C50B3-046D-490A-A07D-E3D2C1BAB896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="north" sheetId="2" r:id="rId1"/>
@@ -2047,7 +2047,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -3732,7 +3734,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <sheetData>
